--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H2">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>28.94629266308965</v>
+        <v>1.017019754996</v>
       </c>
       <c r="R2">
-        <v>28.94629266308965</v>
+        <v>9.153177794964002</v>
       </c>
       <c r="S2">
-        <v>0.2059746319666582</v>
+        <v>0.004631890731705242</v>
       </c>
       <c r="T2">
-        <v>0.2059746319666582</v>
+        <v>0.004631890731705243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H3">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I3">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J3">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>84.13461630901898</v>
+        <v>1.166396174813333</v>
       </c>
       <c r="R3">
-        <v>84.13461630901898</v>
+        <v>10.49756557332</v>
       </c>
       <c r="S3">
-        <v>0.5986810411823035</v>
+        <v>0.00531220716714158</v>
       </c>
       <c r="T3">
-        <v>0.5986810411823035</v>
+        <v>0.005312207167141582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H4">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I4">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J4">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>4.623545651134291</v>
+        <v>0.07832277626133335</v>
       </c>
       <c r="R4">
-        <v>4.623545651134291</v>
+        <v>0.7049049863520002</v>
       </c>
       <c r="S4">
-        <v>0.03290000294537818</v>
+        <v>0.0003567114008003907</v>
       </c>
       <c r="T4">
-        <v>0.03290000294537818</v>
+        <v>0.0003567114008003907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="H5">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="I5">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="J5">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>7.646586787686704</v>
+        <v>0.1295769851413333</v>
       </c>
       <c r="R5">
-        <v>7.646586787686704</v>
+        <v>1.166192866272</v>
       </c>
       <c r="S5">
-        <v>0.05441121312931437</v>
+        <v>0.0005901423581696407</v>
       </c>
       <c r="T5">
-        <v>0.05441121312931437</v>
+        <v>0.0005901423581696409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H6">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I6">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J6">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>0.2209162321709797</v>
+        <v>75.86771623940368</v>
       </c>
       <c r="R6">
-        <v>0.2209162321709797</v>
+        <v>682.8094461546331</v>
       </c>
       <c r="S6">
-        <v>0.001571985060280306</v>
+        <v>0.3455301334695502</v>
       </c>
       <c r="T6">
-        <v>0.001571985060280306</v>
+        <v>0.3455301334695502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H7">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I7">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J7">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>0.6421099463918583</v>
+        <v>87.01090964925444</v>
       </c>
       <c r="R7">
-        <v>0.6421099463918583</v>
+        <v>783.09818684329</v>
       </c>
       <c r="S7">
-        <v>0.004569094959052927</v>
+        <v>0.3962804301310833</v>
       </c>
       <c r="T7">
-        <v>0.004569094959052927</v>
+        <v>0.3962804301310834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H8">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I8">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J8">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>0.03528660116884493</v>
+        <v>5.842728359293779</v>
       </c>
       <c r="R8">
-        <v>0.03528660116884493</v>
+        <v>52.584555233644</v>
       </c>
       <c r="S8">
-        <v>0.0002510906931572253</v>
+        <v>0.02660998392837577</v>
       </c>
       <c r="T8">
-        <v>0.0002510906931572253</v>
+        <v>0.02660998392837578</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="H9">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="I9">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="J9">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>0.05835825546869308</v>
+        <v>9.666193691487111</v>
       </c>
       <c r="R9">
-        <v>0.05835825546869308</v>
+        <v>86.995743223384</v>
       </c>
       <c r="S9">
-        <v>0.0004152628570534621</v>
+        <v>0.04402348405773388</v>
       </c>
       <c r="T9">
-        <v>0.0004152628570534621</v>
+        <v>0.0440234840577339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="H10">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="I10">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="J10">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>3.284996464384256</v>
+        <v>0.6596890003270001</v>
       </c>
       <c r="R10">
-        <v>3.284996464384256</v>
+        <v>5.937201002943</v>
       </c>
       <c r="S10">
-        <v>0.02337521925998172</v>
+        <v>0.00300447198927276</v>
       </c>
       <c r="T10">
-        <v>0.02337521925998172</v>
+        <v>0.003004471989272761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="H11">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="I11">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="J11">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>9.548093786112958</v>
+        <v>0.7565818881766666</v>
       </c>
       <c r="R11">
-        <v>9.548093786112958</v>
+        <v>6.80923699359</v>
       </c>
       <c r="S11">
-        <v>0.06794186483457726</v>
+        <v>0.003445758667328283</v>
       </c>
       <c r="T11">
-        <v>0.06794186483457726</v>
+        <v>0.003445758667328283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="H12">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="I12">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="J12">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>0.5247073016802073</v>
+        <v>0.05080400230266667</v>
       </c>
       <c r="R12">
-        <v>0.5247073016802073</v>
+        <v>0.457236020724</v>
       </c>
       <c r="S12">
-        <v>0.003733686887357795</v>
+        <v>0.0002313805471754863</v>
       </c>
       <c r="T12">
-        <v>0.003733686887357795</v>
+        <v>0.0002313805471754863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.174593</v>
+      </c>
+      <c r="H13">
+        <v>0.523779</v>
+      </c>
+      <c r="I13">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="J13">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.444216</v>
+      </c>
+      <c r="O13">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P13">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q13">
+        <v>0.08405000136266666</v>
+      </c>
+      <c r="R13">
+        <v>0.756450012264</v>
+      </c>
+      <c r="S13">
+        <v>0.0003827953394209927</v>
+      </c>
+      <c r="T13">
+        <v>0.0003827953394209928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H14">
+        <v>12.574763</v>
+      </c>
+      <c r="I14">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J14">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.778439</v>
+      </c>
+      <c r="N14">
+        <v>11.335317</v>
+      </c>
+      <c r="O14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="P14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="Q14">
+        <v>15.83765831165233</v>
+      </c>
+      <c r="R14">
+        <v>142.538924804871</v>
+      </c>
+      <c r="S14">
+        <v>0.07213065664191098</v>
+      </c>
+      <c r="T14">
+        <v>0.07213065664191101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H15">
+        <v>12.574763</v>
+      </c>
+      <c r="I15">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J15">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.333403333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.00021</v>
+      </c>
+      <c r="O15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="P15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="Q15">
+        <v>18.16383996669222</v>
+      </c>
+      <c r="R15">
+        <v>163.47455970023</v>
+      </c>
+      <c r="S15">
+        <v>0.08272496338503259</v>
+      </c>
+      <c r="T15">
+        <v>0.08272496338503263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="H13">
-        <v>2.26846942958069</v>
-      </c>
-      <c r="I13">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="J13">
-        <v>0.1012256772068018</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="N13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="O13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="P13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="Q13">
-        <v>0.8677798865133514</v>
-      </c>
-      <c r="R13">
-        <v>0.8677798865133514</v>
-      </c>
-      <c r="S13">
-        <v>0.006174906224885024</v>
-      </c>
-      <c r="T13">
-        <v>0.006174906224885024</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H16">
+        <v>12.574763</v>
+      </c>
+      <c r="I16">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J16">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2909853333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8729560000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="P16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="Q16">
+        <v>1.219690534380889</v>
+      </c>
+      <c r="R16">
+        <v>10.977214809428</v>
+      </c>
+      <c r="S16">
+        <v>0.005554929738576879</v>
+      </c>
+      <c r="T16">
+        <v>0.005554929738576881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="H17">
+        <v>12.574763</v>
+      </c>
+      <c r="I17">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="J17">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.444216</v>
+      </c>
+      <c r="O17">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P17">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q17">
+        <v>2.017852657867555</v>
+      </c>
+      <c r="R17">
+        <v>18.160673920808</v>
+      </c>
+      <c r="S17">
+        <v>0.00919006044672188</v>
+      </c>
+      <c r="T17">
+        <v>0.009190060446721883</v>
       </c>
     </row>
   </sheetData>
